--- a/my_work/月和年/ER56739_腾冲月平均.xlsx
+++ b/my_work/月和年/ER56739_腾冲月平均.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,252 +442,2997 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.99013532124349</v>
+        <v>1.937147108790868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29.9086445742039</v>
+        <v>2.741104894106759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35.00426883483349</v>
+        <v>2.943769530835495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33.64953688499821</v>
+        <v>3.296226141618932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34.57851243053467</v>
+        <v>3.794044744913845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36.36561852596558</v>
+        <v>2.738378187110234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35.6330293516929</v>
+        <v>2.580092037492429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32.75056273718347</v>
+        <v>3.490308184437041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34.43743335567112</v>
+        <v>2.73010087538873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33.13835787021112</v>
+        <v>2.593118552509732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30.53408560019263</v>
+        <v>2.313805548023342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34.8326359345614</v>
+        <v>1.832039516016077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>34.41662965220848</v>
+        <v>2.464605556694328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33.74846376483383</v>
+        <v>3.232592365174816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32.20326305736905</v>
+        <v>3.454099540576676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.81440038945479</v>
+        <v>3.089903953907714</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29.48811721371019</v>
+        <v>2.731881733812128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.0499379762914</v>
+        <v>2.053179547234392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.66358279450061</v>
+        <v>2.912801282880648</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>32.16835836283888</v>
+        <v>3.01447353148176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32.82316995241833</v>
+        <v>2.644984005961011</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>33.01948719648842</v>
+        <v>2.203420175570096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>34.80443494378865</v>
+        <v>2.106702880910339</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30.54437143947879</v>
+        <v>2.126875947272404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32.19320572940043</v>
+        <v>3.289120507644448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33.84004153767368</v>
+        <v>3.488317577177253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>33.03265739746625</v>
+        <v>3.651586516999787</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>36.89102763541631</v>
+        <v>4.05341664080746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>34.30649131066763</v>
+        <v>2.713625905556594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>34.46081218993902</v>
+        <v>2.957770321818096</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32.5326905783358</v>
+        <v>2.655148913887869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32.55929064983638</v>
+        <v>3.201269950972709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.69425743700679</v>
+        <v>2.483906767394644</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32.66304669361301</v>
+        <v>2.28057197025648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33.19683189478413</v>
+        <v>2.102657815045745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>33.1138859677678</v>
+        <v>2.296482927226222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>32.32061927987606</v>
+        <v>2.824586171012037</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>34.08377397786548</v>
+        <v>3.422587668351406</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>35.54228232492325</v>
+        <v>3.923802054632411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35.84792089254105</v>
+        <v>3.149445521133738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>33.82710197938387</v>
+        <v>3.316939371332788</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>34.42483734596405</v>
+        <v>2.042494369894803</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37.25502367837849</v>
+        <v>3.247598725248291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>34.56810778522681</v>
+        <v>3.082390795580297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>35.66800296652436</v>
+        <v>2.362804058491798</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>36.51111294600806</v>
+        <v>1.937466676243297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>36.78877812932372</v>
+        <v>2.042938545851115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>37.75855842070398</v>
+        <v>2.093745418650337</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35.4577899787233</v>
+        <v>2.816376755617568</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>34.40149670062581</v>
+        <v>4.08381365374707</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.515288325508706</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.830619111280727</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2.860037433554701</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3.083682772040337</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2.611403042165318</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3.028638062026725</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2.356337546347094</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.450917326918723</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.847652982677362</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2.101465890808982</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2.719248154551092</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.76280666081239</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.595780587191574</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.890053561436277</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.668685228377677</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2.252083623120755</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.636038517892456</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.402052609406461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.01071667522545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.211417240081491</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.115269777060984</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2.228839894648091</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.999233465496121</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.955326601141745</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4.054013067255598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.327054407915642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2.738807229708567</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.201362503337209</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.343439889722364</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.220754435702168</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.849613350916148</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.776939518804918</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.937644987044333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.128454153690012</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3.247535507671444</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3.324694966265657</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.31211703987889</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.695715573486785</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2.967272927284948</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2.255006891518941</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2.488859348641708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2.811025165059534</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.865311079904433</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.775196888941241</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.879373194839881</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2.161453456391729</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.804411096797121</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.935268122245827</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.940303221330708</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.406686840906211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2.953317928245907</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2.452119536454412</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3.441498126208191</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3.127320315478195</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2.472779317299756</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.872187157922571</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.870088236390484</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.972273694598557</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2.425405522489753</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3.340858555582496</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3.630227706645643</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3.473760701054102</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2.636006625577067</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3.124503455197599</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2.988962297163471</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3.01446991270373</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2.661578765128847</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.973138594306664</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.897172039763196</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.98271959946551</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2.676527162184279</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3.476066868115717</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2.88545274550769</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3.106355561587118</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2.539464343481869</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2.249747972807952</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2.358801042745265</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3.03736761517852</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2.371774171553687</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2.044977052847217</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.804831464717805</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2.033213042303674</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2.962363065766201</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3.706512295518288</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4.141994219677603</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2.728539144441549</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3.005010823374618</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2.81035359693142</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3.393772560845531</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2.774771094194558</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2.987942376926449</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2.201377207811583</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2.086786506769925</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2.275997978454865</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2.85735870165632</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>3.453430842649692</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4.021824480472921</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4.026107298741623</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>3.078928920736694</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2.605169608393468</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>3.190266193543293</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2.592115363629946</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2.545065871937936</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2.087840464859244</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.682523927132481</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2.116592873085201</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2.516463559998516</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>3.17576337829147</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4.012882453550784</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3.646140283931222</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>3.047672791700135</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.910457503603023</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2.571518042680323</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>3.13153293514902</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2.205679664194166</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2.375161458175079</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2.038598820474891</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2.059925502019888</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2.805648005864597</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2.871309103082805</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.358971369400205</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3.33541985802453</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2.833967291325973</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2.61460686650182</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2.675040299934252</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3.310783124979821</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2.712645151389347</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.829410066061633</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.795536418784182</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2.098850696223707</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2.144388272862071</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.268312890440606</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2.720964390997392</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3.845461746330101</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2.35183413191627</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2.301357309287442</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2.842362483428466</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2.818910370276849</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2.896425647528124</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.969859158613077</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.55567329155068</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.696683333026327</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.998995587686039</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2.156954988234409</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2.974259992496126</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>3.944431908681535</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2.614626559173681</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2.298330339024461</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2.621083620574669</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2.91744756863641</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2.54832789075072</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.933673869798616</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.783301555627201</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.939786307115986</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2.882018996240775</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3.66375283961859</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3.258542960642236</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2.350365767022124</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2.341992139742838</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1.873198407705686</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2.982257328768184</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2.565108187863304</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2.07154022007698</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2.323754617644064</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1.797620203850633</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.027032185699145</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2.196948645930107</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.93114909852765</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2.973295677218197</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2.99262367521248</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2.348490477360216</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2.34367260522336</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2.94349358405088</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.405433613464562</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2.639256929316423</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2.072945646704659</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.789240655792926</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.947186943208882</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2.686015487580542</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3.255811484112781</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3.101760938896082</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3.787766388687099</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>3.084705816596454</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.25000502338825</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>3.137288157228967</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2.790969675659874</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2.144843522912762</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2.110829377840492</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.871175546726698</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2.303159768959846</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2.736787893778759</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>3.057789181228179</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3.307049304289268</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4.476319418956048</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2.456901038200173</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.982857658986433</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.80059192296371</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.448733986855954</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.908475626168799</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.392990486363245</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.951513665667923</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2.332306162358985</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.855380729133862</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>3.502139778179404</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3.947731837793406</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2.754058258228441</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3.455682496374213</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.529673867029986</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.285448390491539</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.521941229414708</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2.710609949291305</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2.062705080285231</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2.061809417907346</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.372694623373765</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2.682898861112598</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>3.49046892496342</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4.052761866543909</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4.12290594227076</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>3.092084159414714</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.461481611499873</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3.130161102522124</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.903460885723715</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.042286196320037</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2.518128171090289</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.93510259895345</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2.160340344620509</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2.084398924124346</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.538371195296863</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3.151621831676477</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>3.033082404444287</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2.20354908839808</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2.342117647713599</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3.56006633367005</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2.471476977318199</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2.833587134572086</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2.221542162989806</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.94421739465448</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2.109846604847986</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2.741327352369811</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3.762762909691439</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3.92046988459667</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2.96616323882379</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2.406200867413911</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2.296415039636721</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2.647879344882423</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2.604685252825746</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2.575516112362021</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>2.289434168660086</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1.872504953289821</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1.82617463443394</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1.982608516859289</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.233350489865418</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3.864301847562394</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3.82156340022835</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3.83357824313735</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2.709861647620351</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3.343474934540435</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2.98329033135166</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2.222363196224149</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2.106832791995155</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1.912641503855192</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1.843271931181561</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2.161548404594819</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3.375463952552238</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3.858567176821806</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3.283468413222193</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3.119286558542666</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2.921122918559947</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2.312843366282686</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.902370069874523</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2.517398344491828</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.41713962519755</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2.320176636144434</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2.573244754223986</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2.770970331749037</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3.077273075035831</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3.939412872826077</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4.277485141655993</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3.138664280315338</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3.370353276370785</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3.363233289302234</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3.185879331844699</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2.803080790930744</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2.273534563993076</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2.117895927168517</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2.348161673369694</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>2.497471459926414</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3.747244943142886</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>4.222499349949187</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3.610718801126131</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2.475045601691901</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2.942011801330473</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3.036199985332292</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2.608349672236182</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2.803733358481425</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1.99721801609865</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2.017836647982398</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2.234833843792368</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.769902937770343</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2.97287306491623</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3.930816455068804</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3.562802667228381</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3.153123860717969</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2.35074822702693</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3.344966510932866</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3.031168149663897</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>2.777990393652008</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2.383192983716381</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1.948393095452841</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>2.051346664828865</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2.197383248741095</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3.003674617739589</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3.354988081126443</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3.7506019845411</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>2.878124534768225</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2.701022393198377</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3.08395749083798</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.610164193132592</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>2.777523196910382</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>2.268580792140912</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1.855323380370229</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1.975602849244202</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>2.465658182390217</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3.071511758699847</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3.501229530817933</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3.531172667872549</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>2.537653908623333</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.228468487963948</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>2.548522817885333</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3.307837364464114</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>2.991740184549248</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>2.370650951894625</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>2.029241945431031</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>2.011281602162942</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>3.005836506013905</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3.729690653915258</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3.927826780676155</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>2.781230765837052</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>3.367002456326236</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>2.698841210557756</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>2.537163971569411</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.126867296347149</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>2.571147068950772</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1.978322912534267</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1.959046212115885</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>2.141202242127914</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>2.445769358743653</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2.82549909730586</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.348357463140387</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3.334351617382954</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>2.812728772282981</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>3.118312987109081</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>2.69685800974242</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2.770724204769344</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>2.628732257924976</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2.45991680368122</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>2.080593879402219</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>2.267485854782522</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>2.605561616289639</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3.472867119060214</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3.902657067501585</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>3.075550312998194</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>2.972310795906763</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>2.751820379846469</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>3.35660152736699</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>2.856280423337635</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1.951235308864427</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1.963252891712767</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>2.021208597116928</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1.846360866441384</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>2.857185551304167</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3.246523076833957</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.274099047062982</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>3.149648814965618</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>2.916458609522984</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>2.667001567308807</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>3.188391222331251</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>3.096669515383705</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2.845411904932023</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>2.209266602950991</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1.816869188729931</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>2.088901114910588</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2.438553578939386</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>3.000827529517741</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.749959796056211</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>3.319786648097619</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2.605179788369003</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>2.681446834962756</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>2.873624072488408</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>3.019934272269694</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>2.359385636851366</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>2.322824630439458</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1.860195376973825</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>2.083015282211693</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>2.939392248260555</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>3.956249665487559</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>3.134629134084128</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>3.459570066696005</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>3.04108325358158</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2.782203296401768</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>3.19378727469242</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2.389481160262393</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2.719683145557457</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2.536747981162665</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1.847931469467257</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2.142998511116298</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2.812753569233488</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2.659536441576698</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>3.928835465545149</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>4.103238019855239</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>3.270640353739625</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>3.217309918837698</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2.904569548040636</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>3.284887520701604</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2.724811852866128</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2.494835021401876</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1.997866102008815</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2.397413795865531</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2.642627278303755</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>3.627746097846783</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3.689476150179011</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>3.462935195924157</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>3.156646436132214</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>3.152367719681375</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>3.66325803139195</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2.864983349620423</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2.73108347442122</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2.415577080831558</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2.043806282343072</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>2.195717869987302</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>2.338052558731706</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>3.990617700879551</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>3.345837970897819</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>3.564455517364112</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>3.222564142651588</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2.455037358331932</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>3.10787153511555</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2.806412249999532</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2.601839411503421</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>2.159347233258229</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>2.039348430663134</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2.08652364910956</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>2.679426367512372</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>3.083024794395746</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>4.008935023530279</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>3.1947040913083</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>3.148317390551993</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2.835093591889525</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>2.85505560116865</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>3.429157973832013</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>2.606105229102114</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>2.582382769570035</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1.916110863993465</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>2.123401454485375</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>3.209886325713544</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3.389271541359972</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3.669534438710082</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>3.96081562383429</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>3.319014243320903</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>3.01397401211325</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>3.211505244945725</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>3.656401823706845</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>3.036810896010028</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>2.478422474522681</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>2.185985599655791</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>2.536778727900368</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>3.062009924930126</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>3.595080013188741</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>3.648847202641018</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>3.558292145305651</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>2.608401904731501</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>2.685765282438586</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>3.299407502480764</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>2.897224087738792</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>2.389728219469011</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>2.220843048873288</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>2.065729725528973</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>2.124707498118258</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>2.973338076144459</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>3.129843463366869</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3.669020355360828</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>3.451071987072913</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>3.253964874554346</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>3.206156823418269</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>3.081598818664584</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>3.253096038633797</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>2.872548592469441</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>2.561480328418869</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>2.091176110301722</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>2.195685983703183</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>3.204465959143922</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>3.33853492151575</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3.480066240667569</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>4.62326113028628</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>2.922563472648163</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2.760351673187202</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>3.482943421556195</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>2.63248138805299</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>3.080006722288151</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>2.506486703425374</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>2.284265329533282</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>2.401780843485241</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>3.301175126720606</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3.817658986975898</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3.9434806297299</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3.058429298735311</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>3.823975174154612</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>2.618152359509913</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>3.329316359192669</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2.875871679997331</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>2.674665249724774</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>2.863683563323912</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>2.080588857773548</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>2.437574387518116</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>2.909284142851153</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>3.589860436048904</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>4.455350299842618</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>3.969785619727342</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>3.381444464613714</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>3.243101760888466</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>2.863583787984987</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>3.290018348393542</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>3.066556684041454</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>2.473857715135964</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>2.07814077365772</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>2.027995137717975</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>2.946099215579479</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>3.950337298011202</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>3.384527957319355</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>4.405707199478084</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>3.225673601800331</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>2.841403624096189</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>2.803833748780204</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>2.87967756885616</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>2.93938465095984</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>2.36982013015827</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>1.683329845966212</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>2.021585314837754</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>2.23617986298771</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>3.429801672648709</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3.335892876201358</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>3.307467377277628</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>3.198517910359973</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>2.721374020643852</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>3.63087370658815</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>3.319053803374084</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>2.726806158206231</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>2.326021816998093</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>2.147922180502267</v>
       </c>
     </row>
   </sheetData>
